--- a/report/reliability/by-unidade/Faculdade de Serviço Social - FSSO.xlsx
+++ b/report/reliability/by-unidade/Faculdade de Serviço Social - FSSO.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="480">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1852,6 +1850,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2235,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3132,7 +3140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="802">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3395,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3786,7 +3794,6 @@
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3814,13 +3821,14 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3829,7 +3837,6 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3845,13 +3852,14 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3859,7 +3867,6 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3875,20 +3882,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3904,19 +3911,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3944,13 +3951,14 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3959,7 +3967,6 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3975,13 +3982,14 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3989,7 +3997,6 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4005,20 +4012,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4034,19 +4041,21 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4122,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7590876071480459</v>
+        <v>0.6222094496623253</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7699206193450854</v>
+        <v>0.6576228320039703</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9303096167658212</v>
+        <v>0.9051399839441475</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.21805388597225472</v>
+        <v>0.12873044591540037</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.346326025189777</v>
+        <v>1.920755510226069</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.05764265958927006</v>
+        <v>0.08864398098485267</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.264957264957265</v>
+        <v>1.742914979757085</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8031534601692234</v>
+        <v>0.5676035391356935</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.18988216519784235</v>
+        <v>0.10405631004431967</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7286579230422262</v>
+        <v>0.6265479655310163</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7385288171616566</v>
+        <v>0.6852946816431336</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9038070040539172</v>
+        <v>0.9114596124586299</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.20431194856601895</v>
+        <v>0.15359295698038924</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.8245132375381408</v>
+        <v>2.177575788109276</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.06512525153956777</v>
+        <v>0.08907782763313954</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.07671034331675472</v>
+        <v>0.11575652373778351</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.19243956118319844</v>
+        <v>0.13828832193234303</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7366066427928922</v>
+        <v>0.5951521190435995</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7468943401824003</v>
+        <v>0.6299961524965516</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9111430618533684</v>
+        <v>0.878585402089722</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.21152148639254784</v>
+        <v>0.12425855888737276</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.9509191565318966</v>
+        <v>1.702674598513953</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.06340878145993348</v>
+        <v>0.09407262657240172</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.07940148472168738</v>
+        <v>0.11634162387771634</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.19243956118319844</v>
+        <v>0.11361577213984922</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7040432516645956</v>
+        <v>0.6086719823665708</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.716330470481419</v>
+        <v>0.6403717507299318</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8976901299034116</v>
+        <v>0.8816885856052987</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.1867050717788959</v>
+        <v>0.12921373771055525</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.5252288171278456</v>
+        <v>1.7806491899056436</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.07159129290843713</v>
+        <v>0.09145517860768822</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0787259271076301</v>
+        <v>0.11507581190966497</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.16851957160859998</v>
+        <v>0.11753301712454761</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7100227319694152</v>
+        <v>0.5950719361599267</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.725977394369734</v>
+        <v>0.5912752977120856</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9056183381831663</v>
+        <v>0.8699291267360798</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.19409987082101315</v>
+        <v>0.10758339512638469</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.6493339580504625</v>
+        <v>1.4466346036887656</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.07058810939542141</v>
+        <v>0.09609931136229935</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.08112263343061388</v>
+        <v>0.10377280401226728</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.169211835020558</v>
+        <v>0.1038699943459676</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.72425545756831</v>
+        <v>0.5159010600706714</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.740323982747481</v>
+        <v>0.5821696465056364</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8932838053662412</v>
+        <v>0.8742771736626926</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.20583078860877146</v>
+        <v>0.1040306858469629</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.8509524698523125</v>
+        <v>1.3933158317410028</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.06632114811781914</v>
+        <v>0.11771091198736046</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.08211767181825055</v>
+        <v>0.10425245632636583</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18732476921248625</v>
+        <v>0.09358787484796868</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7201670731263423</v>
+        <v>0.5029023683802758</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7364716170689494</v>
+        <v>0.57135005233171</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8905649870278471</v>
+        <v>0.8666231563083617</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.20258985313084443</v>
+        <v>0.09997114859277238</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.7946576716999743</v>
+        <v>1.3329059187797885</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.06727373602779665</v>
+        <v>0.12116943731260216</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.08225749055530816</v>
+        <v>0.10543030299931865</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.18732476921248625</v>
+        <v>0.0859076581720142</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7714146265881625</v>
+        <v>0.6180337768081499</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7890187987004614</v>
+        <v>0.6628213139583465</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9170520023212319</v>
+        <v>0.9037709461541484</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2537191300963797</v>
+        <v>0.1407573080369812</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7397587739594793</v>
+        <v>1.9657865143838449</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.054056808387530575</v>
+        <v>0.09031920587834467</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.07034117132584052</v>
+        <v>0.10711736157132556</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.22408312152605495</v>
+        <v>0.11753301712454761</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7977834793301857</v>
+        <v>0.6341873367936195</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7966291888029408</v>
+        <v>0.6628767090869604</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9173739776180547</v>
+        <v>0.8919989322951518</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.26259256309450213</v>
+        <v>0.1407872898573063</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.917126475101851</v>
+        <v>1.9662738438856435</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.047536163353065465</v>
+        <v>0.08275017897836374</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.06487531755920964</v>
+        <v>0.10549230250936091</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.22408312152605495</v>
+        <v>0.11753301712454761</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7454179337552397</v>
+        <v>0.6919523816462428</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7556168904093249</v>
+        <v>0.6823202533843119</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9286647200056827</v>
+        <v>0.9008302404551796</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.21941171601227233</v>
+        <v>0.1518130410018032</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.0919358202575085</v>
+        <v>2.1478242181102805</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.061317471302260375</v>
+        <v>0.06806960770016617</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.08563252781680436</v>
+        <v>0.10357669784895579</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1699402508123939</v>
+        <v>0.14880011711335284</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7557535939634425</v>
+        <v>0.5960895419130606</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.764903704010442</v>
+        <v>0.6407410363696424</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9346105349921862</v>
+        <v>0.8992181466884305</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.22826384927700816</v>
+        <v>0.12939431071826213</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.2535761603169435</v>
+        <v>1.7835074451445079</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.059040204432538636</v>
+        <v>0.0946632113546981</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0860121697295881</v>
+        <v>0.12171496636379243</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.18732476921248625</v>
+        <v>0.09358787484796868</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.74322640818094</v>
+        <v>0.6131342853922727</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7537993934209285</v>
+        <v>0.6498367775897372</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9250348487041266</v>
+        <v>0.9115125889137194</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2177348563509123</v>
+        <v>0.13393738148148673</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.0617284168990575</v>
+        <v>1.8558110503917145</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.06170879267169424</v>
+        <v>0.0908451486433854</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.08551226238486169</v>
+        <v>0.12207401527306491</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1699402508123939</v>
+        <v>0.09708477734376438</v>
       </c>
     </row>
     <row r="22">
@@ -4515,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7563721645028576</v>
+        <v>0.5817953850866632</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7665307501965567</v>
+        <v>0.6295721630775537</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9188396574666666</v>
+        <v>0.8970829861422972</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2298654975378906</v>
+        <v>0.12406081012433058</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.28321931407196</v>
+        <v>1.6995811338265125</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05883145217099986</v>
+        <v>0.09882562909574896</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.07743778575055962</v>
+        <v>0.12058451856673841</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1993258751241032</v>
+        <v>0.10405631004431967</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6076138000294261</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.650146092907554</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8889462141710273</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.13409517253559708</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>1.8583359503135652</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.09276933521879673</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.11335757007904457</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.10405631004431967</v>
       </c>
     </row>
     <row r="24">
@@ -4550,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>39.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6280526696972573</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6505310804029976</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6506087024394455</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5262282878651516</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.1794871794871793</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.4118258963744128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.565479734284832</v>
+        <v>0.037433340100546386</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5884398982810051</v>
+        <v>0.15714328497793784</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5794643900740059</v>
+        <v>0.1018881241808466</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4531772863450989</v>
+        <v>0.015457668144847335</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.7435897435897436</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.4089553561704897</v>
+        <v>0.16222142113076254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.8015814748717562</v>
+        <v>0.46411229201891224</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.8021679563711042</v>
+        <v>0.4937521654253662</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.8135305964317077</v>
+        <v>0.48152013653468245</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.7373332909449442</v>
+        <v>0.30529279875273113</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.2051282051282053</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.4359938274952955</v>
+        <v>1.329177972471541</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.7408995272399267</v>
+        <v>0.39049204239778085</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.7384812367605765</v>
+        <v>0.4368920522299521</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.7419025524817265</v>
+        <v>0.4232433473763954</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.6455444748606464</v>
+        <v>0.22883210590522388</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.717948717948718</v>
+        <v>3.8421052631578947</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.669363540059472</v>
+        <v>1.2845509424523942</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6561772478035853</v>
+        <v>0.7141701959570267</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6374502732863879</v>
+        <v>0.6850977722813663</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.657785426287257</v>
+        <v>0.7188026503490197</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5401013543821744</v>
+        <v>0.6882678007418905</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6923076923076923</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.656785825402626</v>
+        <v>0.369537021476632</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6816603413213553</v>
+        <v>0.752724989900529</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.665362397454059</v>
+        <v>0.7258647070352123</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6868822374107879</v>
+        <v>0.7619266972752056</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.573924152527776</v>
+        <v>0.6240059848332947</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.6666666666666666</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6276126096272245</v>
+        <v>1.6750618340638685</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.27843113890462107</v>
+        <v>0.7898662877524952</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.22501832489076656</v>
+        <v>0.7724474351326066</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.20195496643587807</v>
+        <v>0.8094399818292856</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.12730490252418927</v>
+        <v>0.6787522069740449</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.358974358974359</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4953820051847955</v>
+        <v>1.64571947886918</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.2074561991643753</v>
+        <v>0.25737390617539824</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.14859706771858744</v>
+        <v>0.30443089616248037</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.12406244913364108</v>
+        <v>0.26931013909748214</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.004460736847671008</v>
+        <v>0.20668766911101816</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.8974358974358974</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.9573729950715468</v>
+        <v>0.39285945206319167</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4878337752863415</v>
+        <v>0.2939785170435808</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.520486348956398</v>
+        <v>0.3040868581855837</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.45647427783804745</v>
+        <v>0.29209489493410307</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3712634563686287</v>
+        <v>0.09954581566664082</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.0</v>
+        <v>2.4210526315789473</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.3377121081198773</v>
+        <v>1.4636418655766046</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.41837785647445336</v>
+        <v>0.1725828958528956</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4442485328946867</v>
+        <v>0.17756761831324389</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3696736934656766</v>
+        <v>0.15052698232112208</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2767587685606935</v>
+        <v>-0.0891567409961109</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.9230769230769231</v>
+        <v>2.973684210526316</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.5110925880688446</v>
+        <v>1.9240559932469117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5108945838761023</v>
+        <v>0.461024017033042</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5349280789440545</v>
+        <v>0.43481999751212536</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.48310005296536296</v>
+        <v>0.38119850209740563</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.39096299886429137</v>
+        <v>0.29962971965047647</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0256410256410255</v>
+        <v>1.0263157894736843</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.4046385466352749</v>
+        <v>1.3453994103081315</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
+        <v>28</v>
+      </c>
+      <c r="B38" t="n" s="84">
+        <v>38.0</v>
+      </c>
+      <c r="C38" t="n" s="85">
+        <v>0.40702855127876114</v>
+      </c>
+      <c r="D38" t="n" s="86">
+        <v>0.3826887774150428</v>
+      </c>
+      <c r="E38" t="n" s="87">
+        <v>0.29746124767277266</v>
+      </c>
+      <c r="F38" t="n" s="88">
+        <v>0.21444313119170957</v>
+      </c>
+      <c r="G38" t="n" s="89">
+        <v>1.9473684210526316</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.5236401721242956</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
         <v>29</v>
       </c>
-      <c r="B38" t="n" s="84">
-        <v>39.0</v>
-      </c>
-      <c r="C38" t="n" s="85">
-        <v>0.3934503520716112</v>
-      </c>
-      <c r="D38" t="n" s="86">
-        <v>0.43045455105359187</v>
-      </c>
-      <c r="E38" t="n" s="87">
-        <v>0.39418094994792696</v>
-      </c>
-      <c r="F38" t="n" s="88">
-        <v>0.2621257797503111</v>
-      </c>
-      <c r="G38" t="n" s="89">
-        <v>1.7692307692307692</v>
-      </c>
-      <c r="H38" t="n" s="90">
-        <v>1.3852899841119806</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="n" s="84">
+        <v>38.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5305035320150062</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.49602130998140675</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.43959507105919854</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.37130472899338596</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.0526315789473686</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.4132073626282269</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>38.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.41202267487060046</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.38087814302260425</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.34508463093561137</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.2372791544191255</v>
+      </c>
+      <c r="G40" t="n" s="89">
+        <v>1.7894736842105263</v>
+      </c>
+      <c r="H40" t="n" s="90">
+        <v>1.3980274663203365</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.10256410256410256</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.05128205128205128</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02564102564102564</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3076923076923077</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.38461538461538464</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.1282051282051282</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5009,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.10256410256410256</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02564102564102564</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05128205128205128</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.20512820512820512</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.10256410256410256</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5128205128205128</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5035,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8461538461538461</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.0</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.07692307692307693</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.07692307692307693</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5061,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.8461538461538461</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05128205128205128</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
         <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.10256410256410256</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5087,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.20512820512820512</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1282051282051282</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4358974358974359</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.23076923076923078</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5113,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.20512820512820512</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.10256410256410256</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.05128205128205128</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.20512820512820512</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.10256410256410256</v>
+        <v>0.0</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.3333333333333333</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5139,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5641025641025641</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1282051282051282</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.10256410256410256</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.15384615384615385</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.05128205128205128</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5165,22 +5177,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2564102564102564</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.20512820512820512</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.28205128205128205</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1794871794871795</v>
+        <v>0.23684210526315788</v>
       </c>
       <c r="G52" t="n" s="114">
         <v>0.0</v>
@@ -5191,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.23076923076923078</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.07692307692307693</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3076923076923077</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.20512820512820512</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.1794871794871795</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.34210526315789475</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5217,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="C54" t="n" s="110">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="D54" t="n" s="111">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E54" t="n" s="112">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="F54" t="n" s="113">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="B56" t="n" s="109">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5268,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5317,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.890108587013603</v>
+        <v>0.8720029509406122</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8923967138267257</v>
+        <v>0.9945357979453417</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9396227707639649</v>
+        <v>0.9946912172400135</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6746220615752639</v>
+        <v>0.9837846022553721</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>8.293396471086345</v>
+        <v>182.00933786800834</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.031376417357290534</v>
+        <v>0.002871163518188466</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.4615384615384617</v>
+        <v>0.5175438596491228</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.2882802458715394</v>
+        <v>1.2246158150296511</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6062580856322256</v>
+        <v>0.9855788819799399</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.851489797660719</v>
+        <v>0.9926590008445397</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8506107005037424</v>
+        <v>0.9927370712133683</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8462634367171815</v>
+        <v>0.9855788819799399</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6549312570776696</v>
+        <v>0.98557888197994</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.69391986823696</v>
+        <v>136.68550255382237</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.04240922010577792</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.04615887161715061</v>
-      </c>
+        <v>0.002368849788237545</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5339410642279119</v>
+        <v>0.9855788819799399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8765882449381097</v>
+        <v>0.5875706214689265</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8776803970736661</v>
+        <v>0.986328380323376</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.87144848718742</v>
+        <v>0.9730255451346556</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.7051685283145098</v>
+        <v>0.9730255451346554</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>7.17530449802263</v>
+        <v>72.14422311716487</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03541150917544502</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.030725925974897966</v>
-      </c>
+        <v>0.014513144583975056</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6433538934827323</v>
+        <v>0.9730255451346556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.840799509073376</v>
+        <v>0.5892583120204604</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8511077884202899</v>
+        <v>0.9963614991315428</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8358736655717585</v>
+        <v>0.9927493796515207</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6558159993539538</v>
+        <v>0.9927493796515205</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.71626802631409</v>
+        <v>273.8384667622854</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04740915906092177</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.034968340604748224</v>
-      </c>
+        <v>0.007417757144431272</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5691622777817189</v>
+        <v>0.9927493796515205</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8651664145234494</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8657893918704554</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8559285059676146</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6825724615549226</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>6.4509758500964836</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.039573185379921924</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.02945849892674689</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6433538934827323</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>38.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9890940670507069</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9939788277315844</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9921155506663747</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.986537501575469</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.369537021476632</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8756253203184154</v>
+        <v>0.9972939545509216</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8864486751229124</v>
+        <v>0.9981860758734827</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8592048525210538</v>
+        <v>0.9984185620045175</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7798114056613298</v>
+        <v>0.9909044078383258</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.1794871794871793</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.4118258963744128</v>
+        <v>1.6750618340638685</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8316847404816271</v>
+        <v>0.9951948372789134</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8431139529632626</v>
+        <v>0.9915756369802283</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.803332806148678</v>
+        <v>0.9852758733390196</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7090211401180421</v>
+        <v>0.9843674125723436</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.7435897435897436</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.4089553561704897</v>
+        <v>1.64571947886918</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>39.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8934419075702864</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8856854955197664</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8695925822846599</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.8074420346774118</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.2051282051282053</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.4359938274952955</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>39.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.875846819108068</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8626053435348418</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8390971455691031</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7527921575700706</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.717948717948718</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.669363540059472</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.05128205128205128</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.15384615384615385</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.28205128205128205</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.38461538461538464</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5829,66 +5820,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8792222360712949</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8969027042358264</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.8130766956639983</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.8130766956639983</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>8.69957546013056</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.035032259661041676</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.628205128205128</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.6452401389188909</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.8130766956639983</v>
+      <c r="A6" t="n" s="260">
+        <v>0.7829857175243709</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.9142865586405651</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.8788823902707871</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.7804896508081794</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>10.666781593875696</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.027909309182317214</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.0701754385964914</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>1.1808224718945621</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.7965783830457999</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.8130766956639983</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.8130766956639983</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.661093713031886</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.8130766956639983</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.8130766956639983</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.8130766956639983</v>
+      <c r="B11" t="n" s="287">
+        <v>0.8710585972384421</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.8892657607503496</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.8006107395690687</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.8006107395690689</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>8.030630514790463</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.03797442060390447</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.8006107395690688</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.661093713031886</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.8130766956639983</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.661093713031886</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.8130766956639983</v>
+      <c r="B12" t="n" s="287">
+        <v>0.4517418617932609</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.8533949852425722</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.7442798298096697</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.7442798298096696</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>5.821049072943351</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.04869063122078188</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.7442798298096694</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.5702900154970114</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.8867727571065769</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.7965783830457999</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.7965783830458</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>7.8317967871147935</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.04602404774175068</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.7965783830457999</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
-        <v>39.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9381233472178535</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9521230738890846</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8585366645332871</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.8130766956639986</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.358974358974359</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4953820051847955</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+      <c r="B18" t="n" s="313">
+        <v>38.0</v>
+      </c>
+      <c r="C18" t="n" s="314">
+        <v>0.84427057159627</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.9166779171478113</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.8493259237274838</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.807395069792032</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.39285945206319167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>39.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9643678085461063</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9521230738890846</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.8585366645332873</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.8130766956639984</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.8974358974358974</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.9573729950715468</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="n" s="313">
+        <v>38.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.9363544431504383</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9370006965803781</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.896070087419471</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.830386225080414</v>
+      </c>
+      <c r="G19" t="n" s="318">
+        <v>2.4210526315789473</v>
+      </c>
+      <c r="H19" t="n" s="319">
+        <v>1.4636418655766046</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>38.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.9564691381013695</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.9181326902478002</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.853141814268675</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.8169010047095167</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.973684210526316</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.9240559932469117</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="323">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="337">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="337">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="337">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="337">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="337">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="B25" t="n" s="338">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B26" t="n" s="338">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="C26" t="n" s="339">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="D26" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="341">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="F26" t="n" s="342">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="G26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="C27" t="n" s="339">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="D27" t="n" s="340">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E27" t="n" s="341">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="F27" t="n" s="342">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="G27" t="n" s="343">
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6202,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8278805120910384</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8279271838743729</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>4.811493195240785</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.05511177076491179</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.8974358974358974</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.2885093753079215</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.7063786246755106</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7318311647096161</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8088537356397949</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.8026982866076936</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.585153807051646</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>4.231595832370295</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.023268688819441576</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.692982456140351</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8643127386510077</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.498319636770844</v>
       </c>
     </row>
     <row r="7">
@@ -6275,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.49897076139846575</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.7063786246755106</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.917530419107706</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.91781996772738</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.8481213294981262</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.8481213294981265</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>11.168406026936669</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.026701226725927167</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.8481213294981265</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.49897076139846575</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.49897076139846575</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.7063786246755106</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.22046055115137775</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.6651713353297766</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.4983196367708441</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.498319636770844</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>1.9866021207739524</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.05493712460684874</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.498319636770844</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.17912603828096763</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.5805741903428501</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.4090204548859673</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.4090204548859675</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>1.3842118843793314</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.05873608676233582</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.4090204548859675</v>
       </c>
     </row>
     <row r="14">
@@ -6363,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>39.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9247809236232898</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9236824737634439</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7763212563346363</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.0256410256410255</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.4046385466352749</v>
-      </c>
-    </row>
     <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
-        <v>39.0</v>
-      </c>
-      <c r="C18" t="n" s="430">
-        <v>0.922576379501411</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9236824737634439</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.7763212563346363</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.7063786246755106</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.7692307692307692</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.3852899841119806</v>
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
+        <v>38.0</v>
+      </c>
+      <c r="C18" t="n" s="429">
+        <v>0.519101978917491</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.7474925408054307</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.5058033558268836</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.4711446406895218</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.16222142113076254</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
+        <v>38.0</v>
+      </c>
+      <c r="C19" t="n" s="429">
+        <v>0.9583664160474971</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.8845809170307882</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.8646551260231997</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.8420482473552194</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.263157894736842</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.329177972471541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>38.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.9613392389848113</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.9195775453987212</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.9156531973460645</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.8608931970190989</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.8421052631578947</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.2845509424523942</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F26" t="n" s="457">
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="G26" t="n" s="458">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="H26" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E27" t="n" s="456">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="F27" t="n" s="457">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="G27" t="n" s="458">
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6552,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6601,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9926915322580645</v>
+        <v>0.6529855072463766</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9927704244436923</v>
+        <v>0.6563848804374337</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9856446321042256</v>
+        <v>0.4885215050654753</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9856446321042256</v>
+        <v>0.4885215050654754</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>137.32070668761563</v>
+        <v>1.910232824658687</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.002327730764501139</v>
+        <v>0.11145334573837871</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>0.6794871794871795</v>
+        <v>1.486842105263158</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.6362954769812217</v>
+        <v>1.2383884586007123</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9856446321042257</v>
+        <v>0.4885215050654754</v>
       </c>
     </row>
     <row r="7">
@@ -6672,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547537</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547537</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9714953407958742</v>
+        <v>0.23865326091143724</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547537</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547537</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547537</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9714953407958742</v>
+        <v>0.23865326091143724</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547537</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9714953407958742</v>
+        <v>0.23865326091143724</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547537</v>
       </c>
     </row>
     <row r="13">
@@ -6728,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6757,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9964683955623603</v>
+        <v>0.8437297626036315</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9964046949167354</v>
+        <v>0.8627054842370818</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.989226964073488</v>
+        <v>0.602982075180064</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547537</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>0.6923076923076923</v>
+        <v>1.0263157894736843</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.656785825402626</v>
+        <v>1.3453994103081315</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9963404259349152</v>
+        <v>0.8805382115020999</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9964046949167354</v>
+        <v>0.8627054842370818</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.989226964073488</v>
+        <v>0.6029820751800639</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9856446321042257</v>
+        <v>0.48852150506547526</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>0.6666666666666666</v>
+        <v>1.9473684210526316</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.6276126096272245</v>
+        <v>1.5236401721242956</v>
       </c>
     </row>
     <row r="19">
@@ -6819,64 +6993,73 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="567">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="E22" t="s" s="567">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="F22" t="s" s="567">
         <v>42</v>
       </c>
-      <c r="F22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="567">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.8461538461538461</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.07692307692307693</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.07692307692307693</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="F23" t="n" s="572">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="G23" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.8461538461538461</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.05128205128205128</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.10256410256410256</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="F24" t="n" s="572">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="G24" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
@@ -6906,8 +7089,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="574">
-        <v>48</v>
+      <c r="A1" t="s" s="575">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6921,66 +7104,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="588">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="602">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="602">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="602">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="602">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="602">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="602">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="602">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="602">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="602">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="603">
-        <v>0.6586666666666667</v>
-      </c>
-      <c r="B6" t="n" s="604">
-        <v>0.6619432927326743</v>
-      </c>
-      <c r="C6" t="n" s="605">
-        <v>0.4947049621570535</v>
-      </c>
-      <c r="D6" t="n" s="606">
-        <v>0.4947049621570536</v>
-      </c>
-      <c r="E6" t="n" s="607">
-        <v>1.9580835951562052</v>
-      </c>
-      <c r="F6" t="n" s="608">
-        <v>0.10824970492931578</v>
-      </c>
-      <c r="G6" t="n" s="609">
-        <v>1.4615384615384615</v>
-      </c>
-      <c r="H6" t="n" s="610">
-        <v>1.2321601452253605</v>
-      </c>
-      <c r="I6" t="n" s="611">
-        <v>0.4947049621570537</v>
+      <c r="A6" t="n" s="604">
+        <v>0.8258664412510566</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.8258947143156661</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.7034247476658692</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.7034247476658693</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>4.743651010188601</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.05648986615250093</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>1.9210526315789473</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>1.2972232079365154</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.7034247476658693</v>
       </c>
     </row>
     <row r="7">
@@ -6994,81 +7177,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="615">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="629">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="629">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="629">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="629">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="629">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="629">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="629">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="629">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="625">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="630">
-        <v>0.4947049621570537</v>
-      </c>
-      <c r="C11" t="n" s="631">
-        <v>0.4947049621570537</v>
-      </c>
-      <c r="D11" t="n" s="632">
-        <v>0.24473299958281158</v>
-      </c>
-      <c r="E11" t="n" s="633">
-        <v>0.4947049621570537</v>
-      </c>
-      <c r="F11" s="634"/>
-      <c r="G11" s="635"/>
-      <c r="H11" t="n" s="636">
-        <v>0.4947049621570537</v>
-      </c>
-      <c r="I11" t="n" s="637">
-        <v>0.4947049621570537</v>
+      <c r="A11" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.7034247476658693</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.7034247476658693</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.4948063756287915</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.7034247476658693</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.7034247476658693</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.7034247476658693</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="625">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="630">
-        <v>0.24473299958281158</v>
-      </c>
-      <c r="C12" t="n" s="631">
-        <v>0.4947049621570537</v>
-      </c>
-      <c r="D12" s="632"/>
-      <c r="E12" s="633"/>
-      <c r="F12" s="634"/>
-      <c r="G12" s="635"/>
-      <c r="H12" t="n" s="636">
-        <v>0.24473299958281158</v>
-      </c>
-      <c r="I12" t="n" s="637">
-        <v>0.4947049621570537</v>
+      <c r="A12" t="s" s="626">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.4948063756287915</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.7034247476658693</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.4948063756287915</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.7034247476658693</v>
       </c>
     </row>
     <row r="13">
@@ -7082,84 +7265,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="641">
-        <v>30</v>
+      <c r="A15" t="s" s="642">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="655">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="655">
+      <c r="B16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="655">
+      <c r="C16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="655">
+      <c r="D16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="655">
+      <c r="E16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="655">
+      <c r="F16" t="s" s="656">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="655">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="651">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="656">
-        <v>39.0</v>
-      </c>
-      <c r="C17" t="n" s="657">
-        <v>0.8461794182341812</v>
-      </c>
-      <c r="D17" t="n" s="658">
-        <v>0.8644955066849838</v>
-      </c>
-      <c r="E17" t="n" s="659">
-        <v>0.6080452128501075</v>
-      </c>
-      <c r="F17" t="n" s="660">
-        <v>0.4947049621570538</v>
-      </c>
-      <c r="G17" t="n" s="661">
-        <v>1.0</v>
-      </c>
-      <c r="H17" t="n" s="662">
-        <v>1.3377121081198773</v>
+      <c r="A17" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n" s="657">
+        <v>38.0</v>
+      </c>
+      <c r="C17" t="n" s="658">
+        <v>0.9237479200541144</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.9228826435863525</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.7740255561978108</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.7034247476658692</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>2.0526315789473686</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>1.4132073626282269</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="651">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="656">
-        <v>39.0</v>
-      </c>
-      <c r="C18" t="n" s="657">
-        <v>0.8817301120772361</v>
-      </c>
-      <c r="D18" t="n" s="658">
-        <v>0.8644955066849838</v>
-      </c>
-      <c r="E18" t="n" s="659">
-        <v>0.6080452128501077</v>
-      </c>
-      <c r="F18" t="n" s="660">
-        <v>0.4947049621570537</v>
-      </c>
-      <c r="G18" t="n" s="661">
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="H18" t="n" s="662">
-        <v>1.5110925880688446</v>
+      <c r="A18" t="s" s="652">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="657">
+        <v>38.0</v>
+      </c>
+      <c r="C18" t="n" s="658">
+        <v>0.9220126822205732</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.9228826435863525</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.7740255561978109</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.7034247476658693</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>1.7894736842105263</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>1.3980274663203365</v>
       </c>
     </row>
     <row r="19">
@@ -7173,74 +7356,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="666">
-        <v>36</v>
+      <c r="A21" t="s" s="667">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="680">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="680">
+      <c r="B22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="680">
+      <c r="C22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="680">
+      <c r="D22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="680">
+      <c r="E22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="680">
-        <v>43</v>
+      <c r="F22" t="s" s="681">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="681">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="676">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="681">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="C23" t="n" s="682">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D23" t="n" s="683">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="E23" t="n" s="684">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F23" t="n" s="685">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="G23" t="n" s="686">
+      <c r="A23" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="F23" t="n" s="686">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="G23" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="676">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="681">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="C24" t="n" s="682">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="D24" t="n" s="683">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E24" t="n" s="684">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="F24" t="n" s="685">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="G24" t="n" s="686">
+      <c r="A24" t="s" s="677">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n" s="682">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="C24" t="n" s="683">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="D24" t="n" s="684">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="E24" t="n" s="685">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="F24" t="n" s="686">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7270,8 +7453,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="688">
-        <v>49</v>
+      <c r="A1" t="s" s="689">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7285,66 +7468,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="702">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="716">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="716">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="716">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="716">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="716">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="716">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="716">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="716">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="716">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="717">
-        <v>0.8305430119087848</v>
-      </c>
-      <c r="B6" t="n" s="718">
-        <v>0.8307917243650679</v>
-      </c>
-      <c r="C6" t="n" s="719">
-        <v>0.9316341116524466</v>
-      </c>
-      <c r="D6" t="n" s="720">
-        <v>0.32930362993319306</v>
-      </c>
-      <c r="E6" t="n" s="721">
-        <v>4.909876430379244</v>
-      </c>
-      <c r="F6" t="n" s="722">
-        <v>0.041755804681141685</v>
-      </c>
-      <c r="G6" t="n" s="723">
-        <v>2.1923076923076925</v>
-      </c>
-      <c r="H6" t="n" s="724">
-        <v>0.9373491781515448</v>
-      </c>
-      <c r="I6" t="n" s="725">
-        <v>0.29320799467292974</v>
+      <c r="A6" t="n" s="718">
+        <v>0.759326991285146</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.7608486889268796</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.9110129588488067</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.2413583012614238</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>3.1814531373999064</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.055993531961141006</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>1.644736842105263</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.7365725477272649</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.18498066035946567</v>
       </c>
     </row>
     <row r="7">
@@ -7358,325 +7541,325 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="729">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="743">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="743">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="743">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="743">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="743">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="743">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="743">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="743">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="739">
+      <c r="A11" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.7472672617963199</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.7296774010302439</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.882140063680196</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.23072213773379158</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>2.699283758779935</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.060578749463582784</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.07026455500471565</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.18729031547302438</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.7189888904765307</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.7234546911818874</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.8819996111993708</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.2252095452538302</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>2.616043983077337</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.06517054027663245</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.07253763259124432</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.18729031547302438</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.7087493861515796</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.7146848021385492</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.8801637016884927</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.21772432689048038</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>2.5048956644980422</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.06793694049253421</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.07673924494639024</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.18729031547302438</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="744">
-        <v>0.8096501498688647</v>
-      </c>
-      <c r="C11" t="n" s="745">
-        <v>0.8088651993721363</v>
-      </c>
-      <c r="D11" t="n" s="746">
-        <v>0.9056449811276602</v>
-      </c>
-      <c r="E11" t="n" s="747">
-        <v>0.3198260669837989</v>
-      </c>
-      <c r="F11" t="n" s="748">
-        <v>4.231909608899446</v>
-      </c>
-      <c r="G11" t="n" s="749">
-        <v>0.046798209794047106</v>
-      </c>
-      <c r="H11" t="n" s="750">
-        <v>0.04179355287848564</v>
-      </c>
-      <c r="I11" t="n" s="751">
-        <v>0.28225577814163366</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="739">
+      <c r="B14" t="n" s="745">
+        <v>0.7686682341196868</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.7943549974582074</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.9192084648553349</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.3003050822451956</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>3.862748851855873</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.056518888057338824</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.07540081503854484</v>
+      </c>
+      <c r="I14" t="n" s="752">
+        <v>0.20103700895233384</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="744">
-        <v>0.8158820991960058</v>
-      </c>
-      <c r="C12" t="n" s="745">
-        <v>0.8155019286316127</v>
-      </c>
-      <c r="D12" t="n" s="746">
-        <v>0.9124889044051465</v>
-      </c>
-      <c r="E12" t="n" s="747">
-        <v>0.32936470533807566</v>
-      </c>
-      <c r="F12" t="n" s="748">
-        <v>4.4201108585211175</v>
-      </c>
-      <c r="G12" t="n" s="749">
-        <v>0.045529636371515574</v>
-      </c>
-      <c r="H12" t="n" s="750">
-        <v>0.04456830762557199</v>
-      </c>
-      <c r="I12" t="n" s="751">
-        <v>0.32281175604703866</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="739">
+      <c r="B15" t="n" s="745">
+        <v>0.7399047348215555</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.7335205294452611</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.8784676329388457</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.23421423874598057</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>2.752634294560359</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.05854820311007074</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.1004859383158557</v>
+      </c>
+      <c r="I15" t="n" s="752">
+        <v>0.18729031547302438</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="740">
         <v>20</v>
       </c>
-      <c r="B13" t="n" s="744">
-        <v>0.7958716721272883</v>
-      </c>
-      <c r="C13" t="n" s="745">
-        <v>0.7962126089748445</v>
-      </c>
-      <c r="D13" t="n" s="746">
-        <v>0.9001466383080488</v>
-      </c>
-      <c r="E13" t="n" s="747">
-        <v>0.30270800778440077</v>
-      </c>
-      <c r="F13" t="n" s="748">
-        <v>3.9070749420240647</v>
-      </c>
-      <c r="G13" t="n" s="749">
-        <v>0.05072385506940194</v>
-      </c>
-      <c r="H13" t="n" s="750">
-        <v>0.045382976498079056</v>
-      </c>
-      <c r="I13" t="n" s="751">
-        <v>0.2546559355770237</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="739">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="744">
-        <v>0.8036001748911898</v>
-      </c>
-      <c r="C14" t="n" s="745">
-        <v>0.8043868650006036</v>
-      </c>
-      <c r="D14" t="n" s="746">
-        <v>0.9065121584367251</v>
-      </c>
-      <c r="E14" t="n" s="747">
-        <v>0.31361272246461375</v>
-      </c>
-      <c r="F14" t="n" s="748">
-        <v>4.112131146014738</v>
-      </c>
-      <c r="G14" t="n" s="749">
-        <v>0.049104727000947354</v>
-      </c>
-      <c r="H14" t="n" s="750">
-        <v>0.04643773941715469</v>
-      </c>
-      <c r="I14" t="n" s="751">
-        <v>0.28225577814163366</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="739">
+      <c r="B16" t="n" s="745">
+        <v>0.7463927299634648</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.7382202141552154</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.8814291787444135</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.23857897994295152</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>2.820004653044234</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.05751861276078441</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.10058953706107618</v>
+      </c>
+      <c r="I16" t="n" s="752">
+        <v>0.18729031547302438</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.7362164107485605</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.7390956608356625</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.9044349057416354</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.23940378023351228</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>2.8328224176069523</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.06083892464157173</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.11250711718694967</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.1699256510246797</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="744">
-        <v>0.8206900599581015</v>
-      </c>
-      <c r="C15" t="n" s="745">
-        <v>0.821190071735922</v>
-      </c>
-      <c r="D15" t="n" s="746">
-        <v>0.9221676727371662</v>
-      </c>
-      <c r="E15" t="n" s="747">
-        <v>0.33787164084303967</v>
-      </c>
-      <c r="F15" t="n" s="748">
-        <v>4.592530625721941</v>
-      </c>
-      <c r="G15" t="n" s="749">
-        <v>0.044401706080838016</v>
-      </c>
-      <c r="H15" t="n" s="750">
-        <v>0.05302267575959897</v>
-      </c>
-      <c r="I15" t="n" s="751">
-        <v>0.32281175604703866</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="739">
+      <c r="B18" t="n" s="745">
+        <v>0.7492083673175647</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.746340766521003</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.9149643996287825</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.24637612810331755</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>2.9422968613630234</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.057623164960312716</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.11248042776501</v>
+      </c>
+      <c r="I18" t="n" s="752">
+        <v>0.15637786899396516</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="740">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="744">
-        <v>0.824688049912014</v>
-      </c>
-      <c r="C16" t="n" s="745">
-        <v>0.8253070773642501</v>
-      </c>
-      <c r="D16" t="n" s="746">
-        <v>0.9176844489946789</v>
-      </c>
-      <c r="E16" t="n" s="747">
-        <v>0.34423030001251387</v>
-      </c>
-      <c r="F16" t="n" s="748">
-        <v>4.724330355873022</v>
-      </c>
-      <c r="G16" t="n" s="749">
-        <v>0.04336007743933859</v>
-      </c>
-      <c r="H16" t="n" s="750">
-        <v>0.0503499039996114</v>
-      </c>
-      <c r="I16" t="n" s="751">
-        <v>0.3079935826605685</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="739">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="744">
-        <v>0.8165995889707142</v>
-      </c>
-      <c r="C17" t="n" s="745">
-        <v>0.8180252389421032</v>
-      </c>
-      <c r="D17" t="n" s="746">
-        <v>0.8932497974801853</v>
-      </c>
-      <c r="E17" t="n" s="747">
-        <v>0.3330995503193093</v>
-      </c>
-      <c r="F17" t="n" s="748">
-        <v>4.495267553514418</v>
-      </c>
-      <c r="G17" t="n" s="749">
-        <v>0.0449098597648802</v>
-      </c>
-      <c r="H17" t="n" s="750">
-        <v>0.04311976798904001</v>
-      </c>
-      <c r="I17" t="n" s="751">
-        <v>0.28225577814163366</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="739">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="744">
-        <v>0.8125887171027393</v>
-      </c>
-      <c r="C18" t="n" s="745">
-        <v>0.8147032552409037</v>
-      </c>
-      <c r="D18" t="n" s="746">
-        <v>0.8920183333830234</v>
-      </c>
-      <c r="E18" t="n" s="747">
-        <v>0.3281952151453488</v>
-      </c>
-      <c r="F18" t="n" s="748">
-        <v>4.396748881369163</v>
-      </c>
-      <c r="G18" t="n" s="749">
-        <v>0.04587933055809146</v>
-      </c>
-      <c r="H18" t="n" s="750">
-        <v>0.044787298007236034</v>
-      </c>
-      <c r="I18" t="n" s="751">
-        <v>0.28225577814163366</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="739">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="744">
-        <v>0.8199870842751049</v>
-      </c>
-      <c r="C19" t="n" s="745">
-        <v>0.8196786303645099</v>
-      </c>
-      <c r="D19" t="n" s="746">
-        <v>0.9307263459394317</v>
-      </c>
-      <c r="E19" t="n" s="747">
-        <v>0.3355802737223603</v>
-      </c>
-      <c r="F19" t="n" s="748">
-        <v>4.545654417008066</v>
-      </c>
-      <c r="G19" t="n" s="749">
-        <v>0.04470750604711183</v>
-      </c>
-      <c r="H19" t="n" s="750">
-        <v>0.05729450841858016</v>
-      </c>
-      <c r="I19" t="n" s="751">
-        <v>0.2970413661292724</v>
+      <c r="B19" t="n" s="745">
+        <v>0.7323125357756153</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.7390650877368565</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.8976203600585075</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.23937491279388878</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>2.8323733352765617</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.062408819411475434</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.10447992589855383</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.15870492753945759</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.829156413822617</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.8280394924540357</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.9353345565175509</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.34854781671846957</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>4.815288721061168</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.042569419708158744</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.055048882177943154</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.32326820232722336</v>
+      <c r="A20" t="s" s="740">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="745">
+        <v>0.733996687289911</v>
+      </c>
+      <c r="C20" t="n" s="746">
+        <v>0.7414848182189845</v>
+      </c>
+      <c r="D20" t="n" s="747">
+        <v>0.8880512015703842</v>
+      </c>
+      <c r="E20" t="n" s="748">
+        <v>0.2416738806712896</v>
+      </c>
+      <c r="F20" t="n" s="749">
+        <v>2.8682447704254592</v>
+      </c>
+      <c r="G20" t="n" s="750">
+        <v>0.06185132853337311</v>
+      </c>
+      <c r="H20" t="n" s="751">
+        <v>0.1026308703370885</v>
+      </c>
+      <c r="I20" t="n" s="752">
+        <v>0.15870492753945759</v>
       </c>
     </row>
     <row r="21">
@@ -7690,292 +7873,292 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23" t="s" s="756">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
+      <c r="B24" t="s" s="770">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="769">
+      <c r="C24" t="s" s="770">
         <v>33</v>
       </c>
-      <c r="E24" t="s" s="769">
+      <c r="D24" t="s" s="770">
         <v>34</v>
       </c>
-      <c r="F24" t="s" s="769">
+      <c r="E24" t="s" s="770">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="769">
+      <c r="F24" t="s" s="770">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="770">
         <v>9</v>
       </c>
-      <c r="H24" t="s" s="769">
+      <c r="H24" t="s" s="770">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="765">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.6684081503678796</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.631208878022388</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.6596898181482785</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.6392133466665323</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>0.369537021476632</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.6986104744157736</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.6664440517492484</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.6971379625141664</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.5500012197471256</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>1.6750618340638685</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.7365894013456116</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.7142877787025534</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.7450468528290597</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.6044420723024118</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>1.64571947886918</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C25" t="n" s="771">
-        <v>0.6731965366607694</v>
-      </c>
-      <c r="D25" t="n" s="772">
-        <v>0.683775294168828</v>
-      </c>
-      <c r="E25" t="n" s="773">
-        <v>0.6814514943719188</v>
-      </c>
-      <c r="F25" t="n" s="774">
-        <v>0.5771277607888781</v>
-      </c>
-      <c r="G25" t="n" s="775">
-        <v>3.1794871794871793</v>
-      </c>
-      <c r="H25" t="n" s="776">
-        <v>1.4118258963744128</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="765">
+      <c r="B28" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C28" t="n" s="772">
+        <v>0.05535717227741657</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.1864513257095461</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.12380680333272379</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.03336595390683323</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>0.16222142113076254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C26" t="n" s="771">
-        <v>0.6181624745695886</v>
-      </c>
-      <c r="D26" t="n" s="772">
-        <v>0.6292325849709274</v>
-      </c>
-      <c r="E26" t="n" s="773">
-        <v>0.6178350970664412</v>
-      </c>
-      <c r="F26" t="n" s="774">
-        <v>0.5114536761169515</v>
-      </c>
-      <c r="G26" t="n" s="775">
-        <v>3.7435897435897436</v>
-      </c>
-      <c r="H26" t="n" s="776">
-        <v>1.4089553561704897</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="765">
+      <c r="B29" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.561849738546792</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.6088882028983879</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.5974465538956754</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.4186893790529985</v>
+      </c>
+      <c r="G29" t="n" s="776">
+        <v>3.263157894736842</v>
+      </c>
+      <c r="H29" t="n" s="777">
+        <v>1.329177972471541</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="766">
         <v>20</v>
       </c>
-      <c r="B27" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C27" t="n" s="771">
-        <v>0.7851863991277367</v>
-      </c>
-      <c r="D27" t="n" s="772">
-        <v>0.7816577476457018</v>
-      </c>
-      <c r="E27" t="n" s="773">
-        <v>0.7889805081286815</v>
-      </c>
-      <c r="F27" t="n" s="774">
-        <v>0.7142635747477711</v>
-      </c>
-      <c r="G27" t="n" s="775">
-        <v>3.2051282051282053</v>
-      </c>
-      <c r="H27" t="n" s="776">
-        <v>1.4359938274952955</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="765">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C28" t="n" s="771">
-        <v>0.7267791488510171</v>
-      </c>
-      <c r="D28" t="n" s="772">
-        <v>0.7193037030118299</v>
-      </c>
-      <c r="E28" t="n" s="773">
-        <v>0.7199895223271229</v>
-      </c>
-      <c r="F28" t="n" s="774">
-        <v>0.6241317369635241</v>
-      </c>
-      <c r="G28" t="n" s="775">
-        <v>3.717948717948718</v>
-      </c>
-      <c r="H28" t="n" s="776">
-        <v>1.669363540059472</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="765">
+      <c r="B30" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C30" t="n" s="772">
+        <v>0.5161211042263093</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.5809898202577155</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.5675652347585429</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.37056708176529807</v>
+      </c>
+      <c r="G30" t="n" s="776">
+        <v>3.8421052631578947</v>
+      </c>
+      <c r="H30" t="n" s="777">
+        <v>1.2845509424523942</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C31" t="n" s="772">
+        <v>0.5851475083895799</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.5757178939120776</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.5087441135343731</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.4445848169053644</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>1.0263157894736843</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>1.3453994103081315</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C29" t="n" s="771">
-        <v>0.5737843529348128</v>
-      </c>
-      <c r="D29" t="n" s="772">
-        <v>0.5805892364992334</v>
-      </c>
-      <c r="E29" t="n" s="773">
-        <v>0.527487425741399</v>
-      </c>
-      <c r="F29" t="n" s="774">
-        <v>0.4596864883741734</v>
-      </c>
-      <c r="G29" t="n" s="775">
-        <v>2.0256410256410255</v>
-      </c>
-      <c r="H29" t="n" s="776">
-        <v>1.4046385466352749</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="765">
+      <c r="B32" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C32" t="n" s="772">
+        <v>0.5391929651303677</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.5311523125871884</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.43932216941886704</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.3670682880655635</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>1.9473684210526316</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>1.5236401721242956</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="766">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C30" t="n" s="771">
-        <v>0.5336270707020176</v>
-      </c>
-      <c r="D30" t="n" s="772">
-        <v>0.5442299066779392</v>
-      </c>
-      <c r="E30" t="n" s="773">
-        <v>0.49833686682524125</v>
-      </c>
-      <c r="F30" t="n" s="774">
-        <v>0.41506934525746286</v>
-      </c>
-      <c r="G30" t="n" s="775">
-        <v>1.7692307692307692</v>
-      </c>
-      <c r="H30" t="n" s="776">
-        <v>1.3852899841119806</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="765">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C31" t="n" s="771">
-        <v>0.6338836462093786</v>
-      </c>
-      <c r="D31" t="n" s="772">
-        <v>0.6078764378831901</v>
-      </c>
-      <c r="E31" t="n" s="773">
-        <v>0.6261147352957659</v>
-      </c>
-      <c r="F31" t="n" s="774">
-        <v>0.50881635008791</v>
-      </c>
-      <c r="G31" t="n" s="775">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="H31" t="n" s="776">
-        <v>1.656785825402626</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="765">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C32" t="n" s="771">
-        <v>0.6606367493502439</v>
-      </c>
-      <c r="D32" t="n" s="772">
-        <v>0.6359198249230638</v>
-      </c>
-      <c r="E32" t="n" s="773">
-        <v>0.6551727614006012</v>
-      </c>
-      <c r="F32" t="n" s="774">
-        <v>0.5442324384012593</v>
-      </c>
-      <c r="G32" t="n" s="775">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H32" t="n" s="776">
-        <v>1.6276126096272245</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.575046421534952</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.5936914598865798</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.5210972836530179</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.4672219250516973</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>1.0</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.3377121081198773</v>
+      <c r="B33" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C33" t="n" s="772">
+        <v>0.6130311237201126</v>
+      </c>
+      <c r="D33" t="n" s="773">
+        <v>0.5759024076873804</v>
+      </c>
+      <c r="E33" t="n" s="774">
+        <v>0.5184423518498388</v>
+      </c>
+      <c r="F33" t="n" s="775">
+        <v>0.47041764524809565</v>
+      </c>
+      <c r="G33" t="n" s="776">
+        <v>2.0526315789473686</v>
+      </c>
+      <c r="H33" t="n" s="777">
+        <v>1.4132073626282269</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>39.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.5104956232341248</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.5195419953216568</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.4403332686927776</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.3763401335920248</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.5110925880688446</v>
+      <c r="A34" t="s" s="766">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n" s="771">
+        <v>38.0</v>
+      </c>
+      <c r="C34" t="n" s="772">
+        <v>0.6025583426919854</v>
+      </c>
+      <c r="D34" t="n" s="773">
+        <v>0.5612079544247557</v>
+      </c>
+      <c r="E34" t="n" s="774">
+        <v>0.5186123296089968</v>
+      </c>
+      <c r="F34" t="n" s="775">
+        <v>0.4593871639350965</v>
+      </c>
+      <c r="G34" t="n" s="776">
+        <v>1.7894736842105263</v>
+      </c>
+      <c r="H34" t="n" s="777">
+        <v>1.3980274663203365</v>
       </c>
     </row>
     <row r="35">
@@ -7989,291 +8172,291 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="781">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
+      <c r="B38" t="s" s="795">
         <v>38</v>
       </c>
-      <c r="D38" t="s" s="794">
+      <c r="C38" t="s" s="795">
         <v>39</v>
       </c>
-      <c r="E38" t="s" s="794">
+      <c r="D38" t="s" s="795">
         <v>40</v>
       </c>
-      <c r="F38" t="s" s="794">
+      <c r="E38" t="s" s="795">
         <v>41</v>
       </c>
-      <c r="G38" t="s" s="794">
+      <c r="F38" t="s" s="795">
         <v>42</v>
       </c>
-      <c r="H38" t="s" s="794">
+      <c r="G38" t="s" s="795">
         <v>43</v>
       </c>
+      <c r="H38" t="s" s="795">
+        <v>44</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="790">
+      <c r="A39" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B40" t="n" s="796">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
+        <v>23</v>
+      </c>
+      <c r="B41" t="n" s="796">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B39" t="n" s="795">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="C39" t="n" s="796">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="D39" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="798">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="F39" t="n" s="799">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="G39" t="n" s="800">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="H39" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="790">
+      <c r="B42" t="n" s="796">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="C42" t="n" s="797">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
         <v>19</v>
       </c>
-      <c r="B40" t="n" s="795">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="C40" t="n" s="796">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="D40" t="n" s="797">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="E40" t="n" s="798">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F40" t="n" s="799">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="G40" t="n" s="800">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="H40" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="790">
+      <c r="B43" t="n" s="796">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="C43" t="n" s="797">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n" s="799">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F43" t="n" s="800">
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="G43" t="n" s="801">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
         <v>20</v>
       </c>
-      <c r="B41" t="n" s="795">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="C41" t="n" s="796">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="D41" t="n" s="797">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="E41" t="n" s="798">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="F41" t="n" s="799">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="G41" t="n" s="800">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="H41" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="790">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="795">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="C42" t="n" s="796">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="D42" t="n" s="797">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="E42" t="n" s="798">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="F42" t="n" s="799">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="G42" t="n" s="800">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="H42" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="790">
+      <c r="B44" t="n" s="796">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="C44" t="n" s="797">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="D44" t="n" s="798">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E44" t="n" s="799">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="F44" t="n" s="800">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="G44" t="n" s="801">
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B45" t="n" s="796">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="G45" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="791">
         <v>28</v>
       </c>
-      <c r="B43" t="n" s="795">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="C43" t="n" s="796">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="D43" t="n" s="797">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E43" t="n" s="798">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="F43" t="n" s="799">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="G43" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="790">
+      <c r="B46" t="n" s="796">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="C46" t="n" s="797">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="D46" t="n" s="798">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="E46" t="n" s="799">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F46" t="n" s="800">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="G46" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="791">
         <v>29</v>
       </c>
-      <c r="B44" t="n" s="795">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="C44" t="n" s="796">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="D44" t="n" s="797">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E44" t="n" s="798">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="F44" t="n" s="799">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="G44" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="790">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="795">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="C45" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="F45" t="n" s="799">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="G45" t="n" s="800">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
+      <c r="B47" t="n" s="796">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="C47" t="n" s="797">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="D47" t="n" s="798">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="E47" t="n" s="799">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="F47" t="n" s="800">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="G47" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
+      <c r="A48" t="s" s="791">
+        <v>30</v>
+      </c>
+      <c r="B48" t="n" s="796">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="C48" t="n" s="797">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="D48" t="n" s="798">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="E48" t="n" s="799">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="F48" t="n" s="800">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="G48" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
